--- a/src/test/java/adactinHotelApp/resources/TestData_AdactinHotelApp.xlsx
+++ b/src/test/java/adactinHotelApp/resources/TestData_AdactinHotelApp.xlsx
@@ -3,20 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3233D9C5-7546-435A-8D40-90997EA00026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A4A260F1-A00C-4A2E-B868-7166E9848255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="900" windowWidth="9735" windowHeight="11820" firstSheet="2" activeTab="2" xr2:uid="{5AC8F7C9-618F-4449-A92E-CFFD7E385ECD}"/>
+    <workbookView xWindow="10725" yWindow="900" windowWidth="20790" windowHeight="11820" firstSheet="7" activeTab="7" xr2:uid="{5AC8F7C9-618F-4449-A92E-CFFD7E385ECD}"/>
   </bookViews>
   <sheets>
-    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="RecoveryEmail" sheetId="3" r:id="rId3"/>
-    <sheet name="NewUserRegistration" sheetId="4" r:id="rId4"/>
-    <sheet name="SearchHotelValid" sheetId="7" r:id="rId5"/>
-    <sheet name="SearchHotelInvalid" sheetId="6" r:id="rId6"/>
+    <sheet name="LoginPositiveTest" sheetId="10" r:id="rId1"/>
+    <sheet name="LoginNegativeTest" sheetId="2" r:id="rId2"/>
+    <sheet name="NewUserRegistration" sheetId="4" r:id="rId3"/>
+    <sheet name="ChangePassword" sheetId="13" r:id="rId4"/>
+    <sheet name="SearchHotelNegativeTest" sheetId="6" r:id="rId5"/>
+    <sheet name="SearchHotelPositiveTest" sheetId="11" r:id="rId6"/>
+    <sheet name="BookHotelPositiveTest" sheetId="12" r:id="rId7"/>
+    <sheet name="BookHotelNegativeTest" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J5"/>
+  <oleSize ref="A1:G7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="49">
   <si>
     <t>UserName</t>
   </si>
@@ -34,9 +36,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Adtraining</t>
-  </si>
-  <si>
     <t>Password101</t>
   </si>
   <si>
@@ -125,13 +124,68 @@
   </si>
   <si>
     <t>Hotel Sunshine</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>CCNum</t>
+  </si>
+  <si>
+    <t>ExpMonth</t>
+  </si>
+  <si>
+    <t>ExpYear</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Sarina</t>
+  </si>
+  <si>
+    <t>CCType</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>RePassword</t>
+  </si>
+  <si>
+    <t>LeeraDezlin</t>
+  </si>
+  <si>
+    <t>Adactin20</t>
+  </si>
+  <si>
+    <t>Adactin2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\1\2\3\4\5\6\7\8\9\1\2\3\4\5\6\7"/>
+    <numFmt numFmtId="165" formatCode="\1\2\3\4\5"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +197,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,10 +229,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,16 +549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8070E14B-197C-4330-A4A3-71CB3D6C4D35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F045615A-B64C-4AB8-961C-606885B245DE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -510,10 +572,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -526,13 +588,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,109 +607,57 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8C4FDEF8-E792-4668-A1AD-60F750324261}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E737B4-80E7-4121-A891-B2C667E1E285}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F85D7FDE-8DFC-4EC4-9158-D883F4770327}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CDF47D-5176-43F6-9A2A-CC185494F33C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,98 +676,98 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -769,70 +782,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C93297-2912-43C9-8B70-D9C27FE0E67D}">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BF7886-87D7-4F3B-A9AB-09065CF69860}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44084</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44086</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -840,190 +837,1195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349F6FC1-BAEF-4A2B-A2E3-A4C844A2CC28}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44089</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44090</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44089</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44090</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44089</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44090</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44089</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44090</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>44090</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44089</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44089</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44090</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44089</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44090</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44090</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44089</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44079</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44081</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0285F1-71FC-4F6D-B4E1-C93DDDF6969C}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44084</v>
-      </c>
-      <c r="F2" s="2">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
         <v>44086</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="2">
+        <v>44087</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44085</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44087</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44086</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44088</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>44086</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44085</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44086</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44088</v>
-      </c>
-      <c r="H7">
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B0D9F2-5866-471D-8943-5A1897847BA6}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>2021</v>
+      </c>
+      <c r="R2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301FC3F4-7F7E-42A7-B43E-AAC2E17DDDC2}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>2021</v>
+      </c>
+      <c r="R2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>2021</v>
+      </c>
+      <c r="R3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>2021</v>
+      </c>
+      <c r="R4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <v>2021</v>
+      </c>
+      <c r="R5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>2021</v>
+      </c>
+      <c r="R6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <v>2021</v>
+      </c>
+      <c r="R7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>2021</v>
+      </c>
+      <c r="R10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44087</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44088</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1234567891234560</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>2019</v>
+      </c>
+      <c r="R11">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/java/adactinHotelApp/resources/TestData_AdactinHotelApp.xlsx
+++ b/src/test/java/adactinHotelApp/resources/TestData_AdactinHotelApp.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A4A260F1-A00C-4A2E-B868-7166E9848255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B89D6D39-526D-4CE9-AD08-18716825A138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="900" windowWidth="20790" windowHeight="11820" firstSheet="7" activeTab="7" xr2:uid="{5AC8F7C9-618F-4449-A92E-CFFD7E385ECD}"/>
+    <workbookView xWindow="10725" yWindow="900" windowWidth="20790" windowHeight="11820" firstSheet="2" activeTab="3" xr2:uid="{5AC8F7C9-618F-4449-A92E-CFFD7E385ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPositiveTest" sheetId="10" r:id="rId1"/>
     <sheet name="LoginNegativeTest" sheetId="2" r:id="rId2"/>
-    <sheet name="NewUserRegistration" sheetId="4" r:id="rId3"/>
+    <sheet name="RecoveryEmail" sheetId="14" r:id="rId3"/>
     <sheet name="ChangePassword" sheetId="13" r:id="rId4"/>
-    <sheet name="SearchHotelNegativeTest" sheetId="6" r:id="rId5"/>
-    <sheet name="SearchHotelPositiveTest" sheetId="11" r:id="rId6"/>
-    <sheet name="BookHotelPositiveTest" sheetId="12" r:id="rId7"/>
-    <sheet name="BookHotelNegativeTest" sheetId="9" r:id="rId8"/>
+    <sheet name="NewUserRegistration" sheetId="4" r:id="rId5"/>
+    <sheet name="SearchHotelNegativeTest" sheetId="6" r:id="rId6"/>
+    <sheet name="SearchHotelPositiveTest" sheetId="11" r:id="rId7"/>
+    <sheet name="BookHotelPositiveTest" sheetId="12" r:id="rId8"/>
+    <sheet name="BookHotelNegativeTest" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G7"/>
+  <oleSize ref="A1:H11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="53">
   <si>
     <t>UserName</t>
   </si>
@@ -174,7 +175,19 @@
     <t>Adactin20</t>
   </si>
   <si>
-    <t>Adactin2020</t>
+    <t>adactin2020@gmail.com</t>
+  </si>
+  <si>
+    <t>AdactinTrainee</t>
+  </si>
+  <si>
+    <t>adactin</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>adac</t>
   </si>
 </sst>
 </file>
@@ -553,7 +566,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,22 +598,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D882F-76D8-4EF4-8383-374B7B97B850}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -619,10 +632,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -633,7 +647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -646,18 +660,138 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8C4FDEF8-E792-4668-A1AD-60F750324261}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4EBE41E9-97DB-48CE-9BCC-BE6A3F74FE17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D718C13-5A4F-4227-842D-55DBB3D75289}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{367DB1EA-B43D-4FA7-A777-B7A4BEC1A17A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BF7886-87D7-4F3B-A9AB-09065CF69860}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CDF47D-5176-43F6-9A2A-CC185494F33C}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,67 +916,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BF7886-87D7-4F3B-A9AB-09065CF69860}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349F6FC1-BAEF-4A2B-A2E3-A4C844A2CC28}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -946,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -975,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1004,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1034,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1064,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1093,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1122,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1154,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1192,12 +1271,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0285F1-71FC-4F6D-B4E1-C93DDDF6969C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,11 +1354,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B0D9F2-5866-471D-8943-5A1897847BA6}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -1292,7 +1371,7 @@
     <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1409,12 +1488,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301FC3F4-7F7E-42A7-B43E-AAC2E17DDDC2}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1991,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1968,7 +2047,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2018,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="Q11">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="R11">
         <v>123</v>
